--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>117.875309828238</v>
+        <v>196.0684173274244</v>
       </c>
       <c r="R2">
-        <v>1060.877788454142</v>
+        <v>1764.61575594682</v>
       </c>
       <c r="S2">
-        <v>0.006990641137952836</v>
+        <v>0.01158161255404022</v>
       </c>
       <c r="T2">
-        <v>0.007215622977969368</v>
+        <v>0.01180799862144473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>76.21361049652401</v>
+        <v>90.04858296349468</v>
       </c>
       <c r="R3">
-        <v>685.9224944687161</v>
+        <v>810.437246671452</v>
       </c>
       <c r="S3">
-        <v>0.00451987784028104</v>
+        <v>0.005319101429690936</v>
       </c>
       <c r="T3">
-        <v>0.004665342385390583</v>
+        <v>0.005423074037061001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>4.483337275428334</v>
+        <v>7.288054022388112</v>
       </c>
       <c r="R4">
-        <v>40.350035478855</v>
+        <v>65.592486201493</v>
       </c>
       <c r="S4">
-        <v>0.0002658860624722498</v>
+        <v>0.0004304998179245632</v>
       </c>
       <c r="T4">
-        <v>0.000274443151069602</v>
+        <v>0.0004389148085265671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>18.707347049705</v>
+        <v>12.17003830274684</v>
       </c>
       <c r="R5">
-        <v>112.24408229823</v>
+        <v>73.02022981648101</v>
       </c>
       <c r="S5">
-        <v>0.00110944649951028</v>
+        <v>0.000718874922904416</v>
       </c>
       <c r="T5">
-        <v>0.0007634347595799464</v>
+        <v>0.0004886178592165817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>8.812394118785335</v>
+        <v>4.145783031285112</v>
       </c>
       <c r="R6">
-        <v>79.311547069068</v>
+        <v>37.312047281566</v>
       </c>
       <c r="S6">
-        <v>0.0005226224638594891</v>
+        <v>0.0002448882561298803</v>
       </c>
       <c r="T6">
-        <v>0.000539442174846329</v>
+        <v>0.0002496750929369406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>6953.191652451605</v>
+        <v>9788.691672541023</v>
       </c>
       <c r="R7">
-        <v>62578.72487206446</v>
+        <v>88098.22505286921</v>
       </c>
       <c r="S7">
-        <v>0.4123617378102889</v>
+        <v>0.5782105854050416</v>
       </c>
       <c r="T7">
-        <v>0.4256328957333149</v>
+        <v>0.5895128820369421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>4495.664453224455</v>
@@ -948,10 +948,10 @@
         <v>40460.9800790201</v>
       </c>
       <c r="S8">
-        <v>0.266617130550391</v>
+        <v>0.2655554860896712</v>
       </c>
       <c r="T8">
-        <v>0.2751977473246516</v>
+        <v>0.2707463057525654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>264.4616872189594</v>
+        <v>363.855202640028</v>
       </c>
       <c r="R9">
-        <v>2380.155184970635</v>
+        <v>3274.696823760253</v>
       </c>
       <c r="S9">
-        <v>0.01568400331485185</v>
+        <v>0.02149265057671873</v>
       </c>
       <c r="T9">
-        <v>0.01618876616205961</v>
+        <v>0.02191276794979259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>1103.503096068752</v>
+        <v>607.5876686945668</v>
       </c>
       <c r="R10">
-        <v>6621.01857641251</v>
+        <v>3645.526012167401</v>
       </c>
       <c r="S10">
-        <v>0.06544368070359495</v>
+        <v>0.03588974230195293</v>
       </c>
       <c r="T10">
-        <v>0.04503324916165805</v>
+        <v>0.02439418665567602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>519.822728900035</v>
+        <v>206.9777090449651</v>
       </c>
       <c r="R11">
-        <v>4678.404560100316</v>
+        <v>1862.799381404686</v>
       </c>
       <c r="S11">
-        <v>0.03082828930321896</v>
+        <v>0.01222601613333042</v>
       </c>
       <c r="T11">
-        <v>0.03182044511770427</v>
+        <v>0.01246499837345752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>286.5602461044601</v>
+        <v>389.2304487529422</v>
       </c>
       <c r="R12">
-        <v>2579.04221494014</v>
+        <v>3503.074038776479</v>
       </c>
       <c r="S12">
-        <v>0.01699456695247502</v>
+        <v>0.0229915470994178</v>
       </c>
       <c r="T12">
-        <v>0.01754150805098085</v>
+        <v>0.02344096343993999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>185.27875780108</v>
+        <v>178.7623465023253</v>
       </c>
       <c r="R13">
-        <v>1667.50882020972</v>
+        <v>1608.861118520928</v>
       </c>
       <c r="S13">
-        <v>0.01098802885999075</v>
+        <v>0.01055935608937786</v>
       </c>
       <c r="T13">
-        <v>0.0113416597934475</v>
+        <v>0.01076576008435214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>10.89919708281667</v>
+        <v>14.46807485028355</v>
       </c>
       <c r="R14">
-        <v>98.09277374535</v>
+        <v>130.212673652552</v>
       </c>
       <c r="S14">
-        <v>0.0006463811260290001</v>
+        <v>0.0008546181970705396</v>
       </c>
       <c r="T14">
-        <v>0.0006671837980895699</v>
+        <v>0.0008713234401327102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>45.47841258985001</v>
+        <v>24.15967617063066</v>
       </c>
       <c r="R15">
-        <v>272.8704755391</v>
+        <v>144.958057023784</v>
       </c>
       <c r="S15">
-        <v>0.002697114963283316</v>
+        <v>0.001427093729083645</v>
       </c>
       <c r="T15">
-        <v>0.001855944666518455</v>
+        <v>0.0009699927770313595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>21.42333140950667</v>
+        <v>8.230111772691556</v>
       </c>
       <c r="R16">
-        <v>192.80998268556</v>
+        <v>74.07100595422399</v>
       </c>
       <c r="S16">
-        <v>0.001270519009294833</v>
+        <v>0.0004861464540134606</v>
       </c>
       <c r="T16">
-        <v>0.001311408492654987</v>
+        <v>0.0004956491707891448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>97.61221118710802</v>
+        <v>197.8913899813666</v>
       </c>
       <c r="R17">
-        <v>585.6732671226481</v>
+        <v>1187.3483398882</v>
       </c>
       <c r="S17">
-        <v>0.005788930184662552</v>
+        <v>0.01168929416468592</v>
       </c>
       <c r="T17">
-        <v>0.003983491340685418</v>
+        <v>0.007945190058133583</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>63.11227562378402</v>
+        <v>90.88582185442002</v>
       </c>
       <c r="R18">
-        <v>378.6736537427041</v>
+        <v>545.31493112652</v>
       </c>
       <c r="S18">
-        <v>0.003742898075333419</v>
+        <v>0.005368556495336101</v>
       </c>
       <c r="T18">
-        <v>0.002575571236229706</v>
+        <v>0.003648997201399368</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>3.71263893677</v>
+        <v>7.355815691321666</v>
       </c>
       <c r="R19">
-        <v>22.27583362062</v>
+        <v>44.13489414793</v>
       </c>
       <c r="S19">
-        <v>0.0002201794974670125</v>
+        <v>0.0004345024482629976</v>
       </c>
       <c r="T19">
-        <v>0.0001515103989127549</v>
+        <v>0.0002953304522528995</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>15.49150126203</v>
+        <v>12.2831908814525</v>
       </c>
       <c r="R20">
-        <v>61.96600504812001</v>
+        <v>49.13276352581001</v>
       </c>
       <c r="S20">
-        <v>0.0009187295131507865</v>
+        <v>0.0007255587598217667</v>
       </c>
       <c r="T20">
-        <v>0.0004214654456379054</v>
+        <v>0.0003287738999413188</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>7.297518683432</v>
+        <v>4.184329010276667</v>
       </c>
       <c r="R21">
-        <v>43.785112100592</v>
+        <v>25.10597406166</v>
       </c>
       <c r="S21">
-        <v>0.0004327821864283089</v>
+        <v>0.0002471651378443425</v>
       </c>
       <c r="T21">
-        <v>0.0002978070277315954</v>
+        <v>0.0001679976539431072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>1335.866100147414</v>
+        <v>145.18087690778</v>
       </c>
       <c r="R22">
-        <v>12022.79490132673</v>
+        <v>1306.62789217002</v>
       </c>
       <c r="S22">
-        <v>0.07922405911886739</v>
+        <v>0.008575724175881988</v>
       </c>
       <c r="T22">
-        <v>0.08177375009032539</v>
+        <v>0.008743354068719875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>863.7192876141722</v>
+        <v>66.67739974210801</v>
       </c>
       <c r="R23">
-        <v>7773.47358852755</v>
+        <v>600.096597678972</v>
       </c>
       <c r="S23">
-        <v>0.05122320859590657</v>
+        <v>0.003938583380485842</v>
       </c>
       <c r="T23">
-        <v>0.05287174003873676</v>
+        <v>0.004015570967360513</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>50.80909895803501</v>
+        <v>5.396514585796999</v>
       </c>
       <c r="R24">
-        <v>457.281890622315</v>
+        <v>48.568631272173</v>
       </c>
       <c r="S24">
-        <v>0.003013253393572569</v>
+        <v>0.0003187680194845213</v>
       </c>
       <c r="T24">
-        <v>0.003110229805255537</v>
+        <v>0.0003249989858554565</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>212.008017487365</v>
+        <v>9.0114300756735</v>
       </c>
       <c r="R25">
-        <v>1272.04810492419</v>
+        <v>54.068580454041</v>
       </c>
       <c r="S25">
-        <v>0.01257321801132569</v>
+        <v>0.0005322983329843907</v>
       </c>
       <c r="T25">
-        <v>0.008651910365988526</v>
+        <v>0.0003618021211208262</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>99.86975713215601</v>
+        <v>3.069787700414</v>
       </c>
       <c r="R26">
-        <v>898.8278141894041</v>
+        <v>27.628089303726</v>
       </c>
       <c r="S26">
-        <v>0.005922814825791109</v>
+        <v>0.0001813300288438661</v>
       </c>
       <c r="T26">
-        <v>0.006113430500560805</v>
+        <v>0.0001848744914081908</v>
       </c>
     </row>
   </sheetData>
